--- a/ClosedXML.Tests/Resource/Examples/Ranges/TransposeRanges.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Ranges/TransposeRanges.xlsx
@@ -906,7 +906,7 @@
     <x:col min="1" max="2" width="9.140625" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="7.980625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="10.140625" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="9.000625" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="8.930625" style="0" customWidth="1"/>
     <x:col min="6" max="6" width="10.590625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>

--- a/ClosedXML.Tests/Resource/Examples/Ranges/TransposeRanges.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Ranges/TransposeRanges.xlsx
@@ -904,10 +904,10 @@
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
     <x:col min="1" max="2" width="9.140625" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="6.640625" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="8.620625" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="7.510625" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="8.840625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="7.300625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="8.980625" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="8.100625" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="9.320625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="2" spans="1:6">

--- a/ClosedXML.Tests/Resource/Examples/Ranges/TransposeRanges.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Ranges/TransposeRanges.xlsx
@@ -904,10 +904,10 @@
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
     <x:col min="1" max="2" width="9.140625" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="7.300625" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="8.980625" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="8.100625" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="9.320625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="9.250625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="11.450625" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="11.330625" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="11.890625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="2" spans="1:6">

--- a/ClosedXML.Tests/Resource/Examples/Ranges/TransposeRanges.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Ranges/TransposeRanges.xlsx
@@ -907,7 +907,7 @@
     <x:col min="3" max="3" width="9.250625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="11.450625" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="11.330625" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="11.890625" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="11.880625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="2" spans="1:6">

--- a/ClosedXML.Tests/Resource/Examples/Ranges/TransposeRanges.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Ranges/TransposeRanges.xlsx
@@ -904,10 +904,10 @@
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
     <x:col min="1" max="2" width="9.140625" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="9.250625" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="11.450625" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="11.330625" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="11.880625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="9.620625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="11.930625" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="11.800625" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="12.380625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="2" spans="1:6">

--- a/ClosedXML.Tests/Resource/Examples/Ranges/TransposeRanges.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Ranges/TransposeRanges.xlsx
@@ -904,10 +904,10 @@
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
     <x:col min="1" max="2" width="9.140625" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="9.620625" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="11.930625" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="11.800625" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="12.380625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="9.096636" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="11.246332" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="11.133059" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="11.671772" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="2" spans="1:6">

--- a/ClosedXML.Tests/Resource/Examples/Ranges/TransposeRanges.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Ranges/TransposeRanges.xlsx
@@ -904,7 +904,7 @@
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
     <x:col min="1" max="2" width="9.140625" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="7.980625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="7.870625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="10.140625" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="9.000625" style="0" customWidth="1"/>
     <x:col min="6" max="6" width="10.590625" style="0" customWidth="1"/>

--- a/ClosedXML.Tests/Resource/Examples/Ranges/TransposeRanges.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Ranges/TransposeRanges.xlsx
@@ -904,10 +904,10 @@
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
     <x:col min="1" max="2" width="9.140625" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="7.870625" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="10.140625" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="9.000625" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="10.590625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="7.990625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="10.220625" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="9.040625" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="10.610625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="2" spans="1:6">

--- a/ClosedXML.Tests/Resource/Examples/Ranges/TransposeRanges.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Ranges/TransposeRanges.xlsx
@@ -928,7 +928,7 @@
       </x:c>
     </x:row>
     <x:row r="3" spans="1:6">
-      <x:c r="B3" s="19" t="s"/>
+      <x:c r="B3" s="19"/>
       <x:c r="C3" s="20" t="s">
         <x:v>5</x:v>
       </x:c>
@@ -943,7 +943,7 @@
       </x:c>
     </x:row>
     <x:row r="4" spans="1:6">
-      <x:c r="B4" s="19" t="s"/>
+      <x:c r="B4" s="19"/>
       <x:c r="C4" s="20" t="s">
         <x:v>9</x:v>
       </x:c>
@@ -958,7 +958,7 @@
       </x:c>
     </x:row>
     <x:row r="5" spans="1:6">
-      <x:c r="B5" s="19" t="s"/>
+      <x:c r="B5" s="19"/>
       <x:c r="C5" s="20" t="s">
         <x:v>10</x:v>
       </x:c>
@@ -973,17 +973,17 @@
       </x:c>
     </x:row>
     <x:row r="6" spans="1:6">
-      <x:c r="B6" s="25" t="s"/>
+      <x:c r="B6" s="25"/>
       <x:c r="C6" s="26" t="s">
         <x:v>11</x:v>
       </x:c>
-      <x:c r="D6" s="27" t="n">
+      <x:c r="D6" s="27">
         <x:v>2000</x:v>
       </x:c>
-      <x:c r="E6" s="27" t="n">
+      <x:c r="E6" s="27">
         <x:v>40000</x:v>
       </x:c>
-      <x:c r="F6" s="14" t="n">
+      <x:c r="F6" s="14">
         <x:v>10000</x:v>
       </x:c>
     </x:row>

--- a/ClosedXML.Tests/Resource/Examples/Ranges/TransposeRanges.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Ranges/TransposeRanges.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:si>
     <x:t>Contacts</x:t>
   </x:si>
@@ -58,7 +58,7 @@
 <x:styleSheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:numFmts count="2">
     <x:numFmt numFmtId="0" formatCode=""/>
-    <x:numFmt numFmtId="165" formatCode="$ #,##0"/>
+    <x:numFmt numFmtId="164" formatCode="$ #,##0"/>
   </x:numFmts>
   <x:fonts count="2">
     <x:font>
@@ -434,7 +434,7 @@
     <x:xf numFmtId="15" fontId="0" fillId="0" borderId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="165" fontId="0" fillId="0" borderId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="164" fontId="0" fillId="0" borderId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="7" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -446,7 +446,7 @@
     <x:xf numFmtId="15" fontId="0" fillId="0" borderId="8" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="165" fontId="0" fillId="0" borderId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="164" fontId="0" fillId="0" borderId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="1" fillId="2" borderId="10" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -485,7 +485,7 @@
     <x:xf numFmtId="0" fontId="1" fillId="3" borderId="17" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="165" fontId="0" fillId="0" borderId="17" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="164" fontId="0" fillId="0" borderId="17" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellStyleXfs>
@@ -530,7 +530,7 @@
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -546,7 +546,7 @@
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="165" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -598,7 +598,7 @@
       <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="165" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>

--- a/ClosedXML.Tests/Resource/Examples/Ranges/TransposeRanges.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Ranges/TransposeRanges.xlsx
@@ -904,10 +904,10 @@
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
     <x:col min="1" max="2" width="9.140625" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="7.990625" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="10.220625" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="9.040625" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="10.610625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="7.996339" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="9.282054" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="8.996339" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="9.567768" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="2" spans="1:6">

--- a/ClosedXML.Tests/Resource/Examples/Ranges/TransposeRanges.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Ranges/TransposeRanges.xlsx
@@ -893,7 +893,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>

--- a/ClosedXML.Tests/Resource/Examples/Ranges/TransposeRanges.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Ranges/TransposeRanges.xlsx
@@ -6,7 +6,7 @@
     <x:workbookView firstSheet="0" activeTab="0"/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet name="Contacts" sheetId="2" r:id="rId2"/>
+    <x:sheet name="Contacts" sheetId="1" r:id="rId2"/>
   </x:sheets>
   <x:definedNames/>
   <x:calcPr calcId="125725"/>
